--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\taetaetae\Coc-clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>유닛세분화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +172,9 @@
   <si>
     <t>기본맵생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://algorfati.tistory.com/25</t>
   </si>
 </sst>
 </file>
@@ -532,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L63"/>
+  <dimension ref="B3:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,6 +776,11 @@
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
     </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
